--- a/Data/Transitions/19271966Translation.xlsx
+++ b/Data/Transitions/19271966Translation.xlsx
@@ -28,10 +28,10 @@
     <t>{1.0: 1.0, 886.0: 0.0010655856774592443}</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.53320505597968e-06, 152.0: 1.7512315030382182e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9810626254491548, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.707294875854653e-06, 152.0: 1.7174174533209238e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9810626254491548, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -46,16 +46,16 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9834797394932683}</t>
-  </si>
-  <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{10.0: 0.9833918954386325}</t>
+  </si>
+  <si>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9990105540897097, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.823785824440137e-05}</t>
+    <t>{14.0: 0.9990105540897097, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.862468055472948e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -64,19 +64,19 @@
     <t>{16.0: 0.9941305098400276}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.00025028495136528975}</t>
+    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.0002502803258980169}</t>
   </si>
   <si>
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0, 995.0: 1.0}</t>
@@ -91,22 +91,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 90.0: 0.00531010397249111, 246.0: 0.003342886013191648, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197}</t>
+    <t>{46.0: 0.9985255086994986, 90.0: 0.005333033966917777, 246.0: 0.0033428809785714603, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -136,37 +136,37 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892, 888.0: 0.006491762867531044}</t>
+    <t>{73.0: 0.8429428942637804, 888.0: 0.0064918045262522235}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.981129335060326, 172.0: 0.0017220035424072874}</t>
-  </si>
-  <si>
-    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001841720030388352}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9811350128021665, 172.0: 0.0017130361019852777}</t>
+  </si>
+  <si>
+    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001842445762345899}</t>
   </si>
   <si>
     <t>{83.0: 0.9809857854901237}</t>
@@ -175,10 +175,10 @@
     <t>{84.0: 0.6814142894857135}</t>
   </si>
   <si>
-    <t>{85.0: 0.9886598798546655, 178.0: 0.008694216268385058, 492.0: 0.0026304140311953763, 97.0: 1.3219344149476795e-05, 696.0: 3.435220455010528e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.8967637375132628, 694.0: 0.006483790523690773}</t>
+    <t>{85.0: 0.9886248980275637, 178.0: 0.008740265076213482, 492.0: 0.0026305364932731274, 97.0: 1.317900243106368e-05, 696.0: 3.337415196969153e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.8967465145821124, 694.0: 0.006483790523690773}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -187,13 +187,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9939793120926143, 420.0: 0.0014991437911200875, 212.0: 1.4030499998860047e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9631975404793867, 92.0: 0.08226874328514915, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 858.0: 0.004867508316901873, 543.0: 9.159473591698512e-05}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9177312567148509, 91.0: 0.036469355466693706, 858.0: 0.10635135141719504, 543.0: 0.0020012752548664702}</t>
+    <t>{90.0: 0.9939563644621425, 420.0: 0.0014966934602642376, 212.0: 1.3973902580550808e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9632015604161517, 92.0: 0.08160476573587713, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 858.0: 0.00453890631355781, 543.0: 8.54112408393128e-05}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.918395234264123, 91.0: 0.036469507672753906, 858.0: 0.09917164778675883, 543.0: 0.0018661705944987617}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -205,10 +205,10 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.35809669881787276}</t>
+    <t>{97.0: 0.9723237186088487}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.36192246120965527}</t>
   </si>
   <si>
     <t>{99.0: 1.0, 230.0: 0.004871395167575994}</t>
@@ -229,16 +229,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164, 86.0: -1.7825636407842836e-05, 543.0: -8.621046374552892e-06}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 86.0: -1.1964940251659625e-05, 543.0: -5.786626767105416e-06, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467, 86.0: 0.0008838891141578506, 543.0: 0.000445152667124915}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 86.0: 0.0013519135389946312, 543.0: 0.0006808635924644594, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -250,16 +250,16 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9290859197900155, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04832944130170801}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9506590101861113}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9978703221696027, 743.0: 0.0029220468706393416, 544.0: 2.5343881103012855e-06, 975.0: 0.005097588962881383, 942.0: 0.03103499664687912, 152.0: 0.000366016192556977}</t>
+    <t>{142.0: 0.9290859197900155, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04467886430582105}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9543139172956562}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9978703221696027, 743.0: 0.0029298788622231006, 544.0: 2.5343881103012855e-06, 975.0: 0.005097367967363957, 942.0: 0.031034664688250113, 152.0: 0.0003660192689772492}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -277,10 +277,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00015302591742855296}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.0001543025857522946}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -289,10 +289,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.002611402393722663}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.0026124314199263577}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 0.9994646680942184, 596.0: 0.9994646680942184}</t>
@@ -304,16 +304,16 @@
     <t>{170.0: 0.5220346929207689}</t>
   </si>
   <si>
-    <t>{171.0: 0.6765676889513836}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982771056394336, 81.0: 0.01836311207666031}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.001843951069630992, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{171.0: 0.6794159374403735}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982860878500139, 81.0: 0.018363233985805298}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0018593348291972536, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -325,40 +325,40 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 850.0: 0.001415488374311739, 277.0: 5.627730809889518e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 850.0: 0.0012467412429927535, 277.0: 4.9568221346656136e-05}</t>
+    <t>{178.0: 0.9759282428739054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 850.0: 0.0014179661304327988, 277.0: 5.664210183645187e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 850.0: 0.0012495897215178515, 277.0: 4.991613462473469e-05}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0023339836856795435, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9918073154221901, 171.0: 0.003713599073037713, 593.0: 0.0009491797243270216, 778.0: 0.004088166085144559, 420.0: 4.639583461235061e-06, 212.0: 4.3421902644130816e-09}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.008612127279709971}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118, 857.0: 0.00537477625323952}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.0023355325289895535, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917910059913613, 171.0: 0.0036853674878954555, 593.0: 0.0009488962327097717, 778.0: 0.004072641875622815, 420.0: 4.632000122945102e-06, 212.0: 4.324674369841023e-09}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.006119152019756793}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775, 857.0: 0.005373166020931479}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -367,22 +367,22 @@
     <t>{206.0: 0.9990879610863397, 578.0: 0.18188242287177528}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -391,43 +391,43 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.26372514252777124}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{265.0: 0.19626745878340957}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563, 999.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144, 999.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097, 999.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269, 999.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
   </si>
   <si>
-    <t>{226.0: 0.7384353461125667, 265.0: 0.009059553658887049}</t>
-  </si>
-  <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{226.0: 0.7384353461125667, 265.0: 0.006742230025165162}</t>
+  </si>
+  <si>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -445,7 +445,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -454,19 +454,19 @@
     <t>{237.0: 0.9952565761103924}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.002564069085859641}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
-  </si>
-  <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -475,10 +475,10 @@
     <t>{244.0: 1.0, 565.0: 0.007684666063101304}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674, 543.0: 0.006906251623514751}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.994197047156406, 46.0: 0.001474491300501327, 90.0: 7.841263987730523e-06, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365, 543.0: 0.004940095891182265}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9941932174275605, 46.0: 0.001474491300501327, 90.0: 7.875123991313905e-06, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -487,7 +487,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -499,7 +499,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -517,34 +517,34 @@
     <t>{259.0: 1.0}</t>
   </si>
   <si>
-    <t>{260.0: 1.0, 707.0: 0.05531438024386263}</t>
+    <t>{260.0: 1.0, 707.0: 0.05530363347034253}</t>
   </si>
   <si>
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
-  </si>
-  <si>
-    <t>{267.0: 0.9917951206145526, 887.0: 0.00388533321524782}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
+  </si>
+  <si>
+    <t>{267.0: 0.9914923782252022, 887.0: 0.0038859439078832757}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 0.004743423889607589}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -559,7 +559,7 @@
     <t>{276.0: 0.9998061451972473, 167.0: 0.0005353319057815846, 596.0: 0.0005353319057815846}</t>
   </si>
   <si>
-    <t>{277.0: 0.9182157959186211}</t>
+    <t>{277.0: 0.91800401582254}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -568,10 +568,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005053750609359766, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.0009244217991987239, 277.0: 0.003326032906596944}</t>
+    <t>{281.0: 1.0, 599.0: 0.005052641409470727, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.0009280511970553328, 277.0: 0.0033252657802072005}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -580,16 +580,16 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.1554091037724622, 306.0: 0.011054877862037047, 142.0: 0.0007618672020061679, 788.0: 0.026298366265383358, 44.0: 3.616660946846924e-07}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.15624688601630685, 306.0: 0.011054877862037047, 142.0: 0.0007618672020061679, 788.0: 0.026172626732387502, 44.0: 3.5774486716174825e-07}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -610,13 +610,13 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127, 749.0: 0.0005137426149499101}</t>
-  </si>
-  <si>
-    <t>{299.0: 0.9421714285714285, 443.0: 0.01300180256407217}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354, 749.0: 0.0005137426149499101}</t>
+  </si>
+  <si>
+    <t>{299.0: 0.9421714285714285, 443.0: 0.013004144539068464}</t>
   </si>
   <si>
     <t>{300.0: 1.0}</t>
@@ -625,7 +625,7 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.9475683890577508, 144.0: 0.000958511394140859, 840.0: 0.10136869118905047}</t>
+    <t>{303.0: 0.9475683890577508, 144.0: 0.0009544083153175263, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 0.996803409696324}</t>
@@ -634,31 +634,31 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9889451221379629, 142.0: 0.07015221300797832, 44.0: 7.544287133983491e-05}</t>
+    <t>{306.0: 0.9889451221379629, 142.0: 0.07015221300797832, 44.0: 7.462491060794599e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506, 857.0: 5.585426628960308e-06}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993, 857.0: 5.5879010765889695e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -667,31 +667,31 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.6419033011821272, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
+    <t>{242.0: 0.3128610519914868}</t>
+  </si>
+  <si>
+    <t>{398.0: 1.0, 98.0: 0.6380775387903448, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9631065512242976, 476.0: 0.017084283982261247, 141.0: 0.001462755443927208}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.24571753336152957, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.3096939584397832}</t>
+    <t>{402.0: 0.9631027328570206, 476.0: 0.01708421624928733, 141.0: 0.001462755443927208}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.35005776247073445, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31245635026236357}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,16 +700,16 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.9929952794274403}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.9931527240250074}</t>
   </si>
   <si>
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.4350812208144059, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.32789516505867994, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -718,7 +718,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -727,58 +727,58 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.9961880559085133, 922.0: 0.07410316303590404, 887.0: 0.003466021689229907, 267.0: 2.886132604464845e-05}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8578764750705797, 212.0: 0.0008028873516867112}</t>
+    <t>{418.0: 0.996164500319625, 922.0: 0.07410553501267078, 887.0: 0.0034665664749156328, 267.0: 2.9926246855315358e-05}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8564742872285432, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
+    <t>{597.0: 0.13743568393910327}</t>
   </si>
   <si>
     <t>{423.0: 0.9970319608416004}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
-  </si>
-  <si>
-    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808137663009234e-05, 918.0: 6.570736109710267e-07}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
+  </si>
+  <si>
+    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808844077235574e-05, 918.0: 6.570736109710267e-07}</t>
   </si>
   <si>
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 1.0, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5678115620279767e-06, 172.0: 2.751703539139699e-09}</t>
+    <t>{434.0: 1.0, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5498966598894875e-06, 172.0: 2.7060790799364145e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -799,22 +799,22 @@
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9493412936702375}</t>
+    <t>{443.0: 0.9495122956187572}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 0.9828856641957947, 402.0: 0.035199312420877364, 141.0: 5.346032149888464e-05}</t>
-  </si>
-  <si>
-    <t>{477.0: 0.08039708826633918}</t>
+    <t>{476.0: 0.9828856617203114, 402.0: 0.035199172868402566, 141.0: 5.346032149888464e-05}</t>
+  </si>
+  <si>
+    <t>{477.0: 0.08039560246346297}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -838,22 +838,22 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0, 492.0: 0.22436055090998525}</t>
   </si>
   <si>
-    <t>{492.0: 0.7660189137195403, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243}</t>
+    <t>{492.0: 0.7660545766481357, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -865,19 +865,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9149425095141601}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9100470457515898, 277.0: 0.0002425405117500387}</t>
+    <t>{499.0: 0.9158799178259773}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9113407197519986, 277.0: 0.00024248457146551047}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605, 857.0: 4.435158886417873e-06}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106, 857.0: 4.434114317499588e-06}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -904,16 +904,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 476.0: 1.1734260202532035e-05, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 476.0: 1.1734213680457066e-05, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{536.0: 0.5216757544674189}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -925,16 +925,16 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.980110380594447}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073645517864837}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.9800564019401017}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073338850958952}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -961,7 +961,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -979,10 +979,10 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.7055721343265888, 752.0: 0.04612635356536104}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.7048004079814317, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9889464225075689, 181.0: 0.004568817818389492}</t>
@@ -991,13 +991,13 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 742.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 742.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996}</t>
+    <t>{585.0: 0.738502526649488}</t>
   </si>
   <si>
     <t>{586.0: 1.0, 243.0: 0.011176157530601383}</t>
@@ -1009,7 +1009,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006203832244919863}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.00620327812086749}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1018,22 +1018,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.32222566945663483, 686.0: 0.0031784310045871716, 171.0: 0.001344575637659295}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6745488866890498, 686.0: 0.006653743940318745, 171.0: 0.0028147416094494553, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 492.0: 1.4346813410695112e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.8317561741481748e-05}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017882490564377636}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9770637588262626}</t>
+    <t>{593.0: 0.4952232063620879, 686.0: 0.004833238028639742, 171.0: 0.0020751461355047337}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5015556694602002, 686.0: 0.004895041072333087, 171.0: 0.0021016812133392445, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 492.0: 1.434748134378798e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.8387816720691333e-05}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.018098046241080627}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9768493123494487}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1048,19 +1048,19 @@
     <t>{603.0: 0.9964699949571356}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012023636026262407}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012025834345530434}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9962446226757116}</t>
+    <t>{606.0: 0.9962612248325914}</t>
   </si>
   <si>
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46377929329690437}</t>
@@ -1081,7 +1081,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1090,10 +1090,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009433937212400633, 789.0: 0.004051324983440062}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9992133045579098, 887.0: 0.010763735670013794, 861.0: 0.015827253643999197, 253.0: 2.603166717763026e-05}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009489582591142481, 789.0: 0.004051002677320427}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9992133045579098, 887.0: 0.010608372194399853, 861.0: 0.015843873673027867, 253.0: 2.605900275169057e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1105,7 +1105,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1117,10 +1117,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0, 603.0: 0.0035300050428643467}</t>
@@ -1141,25 +1141,25 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.001177581845678005}</t>
+    <t>{702.0: 0.001070622812488529}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9933624952141614, 481.0: 0.018463733544381404}</t>
   </si>
   <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.00314508968692994, 90.0: 0.0006467539555858231, 420.0: 9.754500572628648e-07, 212.0: 0.007039869053910691}</t>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.0031583300427654656, 90.0: 0.0006467390242179381, 420.0: 9.738556969434549e-07, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
   </si>
   <si>
-    <t>{683.0: 0.9911283615192681, 698.0: 0.0020904692488619802}</t>
+    <t>{683.0: 0.9911283615192681, 698.0: 0.0021057529395522787}</t>
   </si>
   <si>
     <t>{684.0: 1.0, 685.0: 0.29783014465702284}</t>
@@ -1168,10 +1168,10 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.9797093010679292}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 4.33979353343334e-05}</t>
+    <t>{686.0: 0.9798120995249867}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 4.302427357788537e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1183,28 +1183,28 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{694.0: 0.9935162094763093, 86.0: 0.10101962291233192}</t>
-  </si>
-  <si>
-    <t>{695.0: 0.9726124982080356, 857.0: 0.0023941550953976375}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.006957536667623922, 14.0: 0.0009894459102902375, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{694.0: 0.9935162094763093, 86.0: 0.10101768276473509}</t>
+  </si>
+  <si>
+    <t>{695.0: 0.9726649784458168, 857.0: 0.002393591223829053}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006921363786707522, 14.0: 0.0009894459102902375, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.2073237570631063}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7905857736880316, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4342393065848448}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5636549404756029, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1213,7 +1213,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8094192929256746}</t>
+    <t>{702.0: 0.8093908462413278}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1222,10 +1222,10 @@
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9393860466661919}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24592013398122453}</t>
+    <t>{707.0: 0.939203537722822}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.2467798910788567}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1237,7 +1237,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.15663214004979042, 888.0: 0.6845827597220233}</t>
+    <t>{734.0: 1.0, 73.0: 0.156636125432775, 888.0: 0.6845807356371736}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1246,25 +1246,25 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16773074800977378, 246.0: 0.0002554275350402646}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 742.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.04085429900303e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.1677175283732661, 246.0: 0.000255116027440638}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 742.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.040592407155029e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1285,7 +1285,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.048507731692186445}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.04841970093971142}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1327,7 +1327,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1336,7 +1336,7 @@
     <t>{772.0: 1.0, 493.0: 0.0006747638326585695}</t>
   </si>
   <si>
-    <t>{992.0: 0.34200974234125203}</t>
+    <t>{992.0: 0.3420146417863564}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1348,34 +1348,34 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9959118339148554, 171.0: 0.018258760872775833, 184.0: 0.008192684577809846, 593.0: 0.0012391153462810018, 420.0: 0.0013220370978487693, 212.0: 1.2372956890280223e-06}</t>
+    <t>{778.0: 0.9959273581243772, 171.0: 0.018048277346930958, 184.0: 0.008208994008638804, 593.0: 0.0012387818720972163, 420.0: 0.001319876245559199, 212.0: 1.2323045809641737e-06}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.000505985051451829, 172.0: 8.880664555316855e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005002033153683339, 172.0: 8.733419217314788e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.0899529542484101, 277.0: 1.8933484705445655e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.8282179270067861, 246.0: 0.0012612455741220093, 681.0: 0.07824284302484964, 171.0: 0.00027226664733883825, 90.0: 5.598871532098427e-05, 420.0: 8.444354316543665e-08, 212.0: 0.0006094330323799761}</t>
+    <t>{787.0: 1.0, 500.0: 0.08865928024800145, 277.0: 1.892911782869632e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.8282314689494136, 246.0: 0.0012598273073130893, 681.0: 0.07823603868974756, 171.0: 0.00027341284908560966, 90.0: 5.59874227303497e-05, 420.0: 8.430552130214296e-08, 212.0: 0.0006094350250747332}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1384,19 +1384,19 @@
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{833.0: 0.9992826398852224, 17.0: 0.015055735764571863, 918.0: 0.0009153035400826402}</t>
-  </si>
-  <si>
-    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951990927166076, 836.0: 0.022287545654982754, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9777124543450172, 835.0: 0.0048009072833924355}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394, 2.0: 1.0, 840.0: 0.004316784414945863, 303.0: 0.00026558267339449093, 144.0: 2.6864975813317807e-07}</t>
+    <t>{833.0: 0.9992826398852224, 17.0: 0.015056719799589153, 918.0: 0.0009153035400826402}</t>
+  </si>
+  <si>
+    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9950128062170731, 836.0: 0.02148231330574205, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.978517686694258, 835.0: 0.004987193782926856}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394, 2.0: 1.0, 840.0: 0.004316784414945863, 303.0: 0.00026558267339449093, 144.0: 2.6749975497178876e-07}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 423.0: 0.001701162461015027}</t>
@@ -1405,16 +1405,16 @@
     <t>{839.0: 1.0}</t>
   </si>
   <si>
-    <t>{840.0: 0.8479073387672611, 303.0: 0.052166028268854754, 144.0: 5.276846828173793e-05}</t>
+    <t>{840.0: 0.8479073387672611, 303.0: 0.052166028268854754, 144.0: 5.254258345024819e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
   </si>
   <si>
-    <t>{842.0: 1.0, 606.0: 0.0023047880223845264}</t>
-  </si>
-  <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{842.0: 1.0, 606.0: 0.0023048264310759777}</t>
+  </si>
+  <si>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1426,25 +1426,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.03965238146853967}</t>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.039839460656926125}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 0.1141255380919011}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0021906048708660924}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022624877410163248}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1453,10 +1453,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9922024767270339, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292, 543.0: 0.001206332906300768}</t>
+    <t>{857.0: 0.9922046537749547, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183, 543.0: 0.00580675205403181}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1465,13 +1465,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6700430574810726, 253.0: 0.0011020445024359745, 490.0: 0.032209337000882715, 619.0: 0.0001431947985895543, 887.0: 1.5425244582994834e-06}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.9837473879730672}</t>
+    <t>{861.0: 0.6741299452051571, 253.0: 0.0011087663572453242, 490.0: 0.032521737688368406, 619.0: 0.0001431947985895543, 887.0: 1.5202597011177777e-06}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.9830426356589147}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1480,13 +1480,13 @@
     <t>{886.0: 0.3994880704794707, 531.0: 0.010695992768906298, 262.0: 0.0002365587487128925, 442.0: 2.2470573043920794e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9391024709501231, 267.0: 0.007819784458684576, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05, 253.0: 1.676458320139273e-08}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.30892547741044557}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{887.0: 0.9392499769554238, 267.0: 0.008108317674105804, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05, 253.0: 1.6782187510120435e-08}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.30892745983657405}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1498,64 +1498,64 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.08505749048583985}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9929245283018868, 477.0: 0.002241450061637145}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.8445908962275378}</t>
-  </si>
-  <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 2.99421255704161e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.31411949600834177, 253.0: 0.0005166439079084569, 490.0: 0.015099947446190023}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.08412008217402274}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9929245283018868, 477.0: 0.0022414086378366033}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.8437531139836932}</t>
+  </si>
+  <si>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 2.968432005164577e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.31001597755180876, 253.0: 0.000509894699920738, 490.0: 0.014956007118753252}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.9545783908574367, 110.0: 0.13207178973473804}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.2928357183343312, 420.0: 0.13447613311335305}</t>
+    <t>{914.0: 0.9545783908574367, 110.0: 0.13212383277978257}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.29019767916417166, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318, 857.0: 1.8571338813685616e-05}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298, 857.0: 1.85669648907231e-05}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.010458523987164852}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9131253489797747, 887.0: 0.04270954349163317, 267.0: 0.0003556394536596202}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.010459621374040539}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9131545773153027, 887.0: 0.04271625653327697, 267.0: 0.0003687617840303886}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1564,7 +1564,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1573,7 +1573,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 922.0: 0.009378519510828734, 3.0: 0.0162526120269329, 418.0: 0.0038119440914866584, 887.0: 7.13524592938979e-05, 267.0: 5.941470586198906e-07}</t>
+    <t>{928.0: 1.0, 922.0: 0.009274816496457203, 3.0: 0.01695736434108527, 418.0: 0.0038354996803750267, 887.0: 7.136367439926941e-05, 267.0: 6.160698062560191e-07}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1582,40 +1582,40 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09421646692390045, 299.0: 0.05782857142857143}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09502178943540394, 299.0: 0.05782857142857143}</t>
   </si>
   <si>
     <t>{934.0: 1.0, 5.0: 0.0029201396313996318}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 975.0: 0.00211164005116051, 152.0: 0.00043336244194414986}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 0.9959752321981424, 975.0: 0.002154720585817263, 152.0: 0.00042499476517949327}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0, 565.0: 0.010326270022292377}</t>
@@ -1624,16 +1624,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9913115968644323, 152.0: 0.07117800722589049}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9912686205827286, 152.0: 0.07117860548757622}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1651,19 +1651,19 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.37392488484691844}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27544565774862106}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{992.0: 0.42961599983178916}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.21976384529210544}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493103, 886.0: 0.006416426050689767}</t>
   </si>
   <si>
-    <t>{4.0: 0.9120047090807345, 496.0: 0.00433652568326611, 559.0: 0.04547728889017001, 944.0: 0.035893952150862156, 971.0: 0.0022717118157395614, 975.0: 1.3458167412878542e-05, 152.0: 2.3542118150070355e-06}</t>
+    <t>{4.0: 0.9120047090807345, 496.0: 0.00433652568326611, 559.0: 0.04547728889017001, 944.0: 0.035893952150862156, 971.0: 0.0022717118157395614, 975.0: 1.3458167412878542e-05, 152.0: 2.354211815007035e-06}</t>
   </si>
   <si>
     <t>{5.0: 0.9962516462364501, 403.0: 0.003748353763549792}</t>
@@ -1684,7 +1684,7 @@
     <t>{11.0: 0.9970355731225299, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994836, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033584, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919302775984508, 178.0: 0.0006455777921239509, 623.0: 0.001613944480309877, 696.0: 0.005717900736820557, 492.0: 9.229939229500001e-05}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1705,7 +1705,7 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9621913974621147, 90.0: 0.013949104158149093, 246.0: 0.008365819845193214, 681.0: 0.014075080861496234, 741.0: 0.0014185976730473398}</t>
+    <t>{46.0: 0.9621913974621147, 90.0: 0.013949104158149086, 246.0: 0.008365819845193214, 681.0: 0.014075080861496234, 741.0: 0.0014185976730473398}</t>
   </si>
   <si>
     <t>{48.0: 0.9182990922121358, 443.0: 0.0817009077878643}</t>
@@ -1720,16 +1720,16 @@
     <t>{73.0: 0.9914168937329702, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487783, 917.0: 0.22668409045122156}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.999477670410029, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332865, 917.0: 0.22441031406671372}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613502, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 0.9797512417816668, 271.0: 0.018221544275942185, 262.0: 0.0020272139423908164}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699433, 172.0: 0.0014617321300571377}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203815}</t>
   </si>
   <si>
     <t>{82.0: 0.9987155701441417, 914.0: 0.0011614816447747813, 110.0: 0.00012294821108364552}</t>
@@ -1741,7 +1741,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1756,10 +1756,10 @@
     <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.97767531321528e-07}</t>
   </si>
   <si>
-    <t>{91.0: 0.9594714096575209, 92.0: 0.007395204865203072, 104.0: 0.02094026447201192, 294.0: 0.0035855077645153698, 566.0: 0.007920445430630262, 858.0: 0.0006784398019144885, 543.0: 8.728008204353057e-06}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863925, 858.0: 0.12813039795525835, 543.0: 0.001648374935292302}</t>
+    <t>{91.0: 0.9594714096575212, 92.0: 0.0071649138056952095, 104.0: 0.021170555531519777, 294.0: 0.0035855077645153698, 566.0: 0.007920445430630262, 858.0: 0.0006784398019144885, 543.0: 8.728008204353057e-06}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863936, 858.0: 0.12813039795525835, 543.0: 0.001648374935292302}</t>
   </si>
   <si>
     <t>{96.0: 0.9988221436984688, 100.0: 0.001177856301531213}</t>
@@ -1777,16 +1777,16 @@
     <t>{100.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9974495015699067, 86.0: 0.0017320841078430878, 543.0: 0.0008184143222506395}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.980154611912809, 86.0: 0.001702051305706429, 543.0: 0.0008042237438054801, 505.0: 0.017339113037679228}</t>
+    <t>{107.0: 0.997454815902492, 86.0: 0.001732093336251144, 543.0: 0.0008130907612562256}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9801598340995816, 86.0: 0.001702060374102074, 543.0: 0.0007989924886369114, 505.0: 0.017339113037679228}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 0.7783443228422291, 110.0: 0.2216556771577714}</t>
+    <t>{109.0: 0.7783443228422288, 110.0: 0.2216556771577714}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1798,7 +1798,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273646}</t>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289224}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1813,13 +1813,13 @@
     <t>{152.0: 0.999050031665611, 975.0: 0.0009499683343888538}</t>
   </si>
   <si>
-    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.02189152298465993, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.979945769710397, 914.0: 0.019393847876713156, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589452, 893.0: 0.0007695267410542519}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578106}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 596.0: 0.5808984820566816}</t>
@@ -1831,10 +1831,10 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9794232197379923, 81.0: 0.020576780262007807}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9461440454101392, 404.0: 0.006089422657506928, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.3171056375413422e-06, 831.0: 0.001466275659824047}</t>
+    <t>{172.0: 0.9794232380232747, 81.0: 0.020576761976725477}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9461505286921809, 404.0: 0.006082939375465398, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.3171056375413422e-06, 831.0: 0.001466275659824047}</t>
   </si>
   <si>
     <t>{174.0: 0.9852869053457572, 502.0: 0.014713094654242278}</t>
@@ -1849,10 +1849,10 @@
     <t>{177.0: 0.9988607234406152, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.0065680205345009825}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.4623405296443513, 850.0: 0.00018677880522148456, 277.0: 2.017756435969322e-05}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919333, 768.0: 0.0065680205345009825}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.4614108006709617, 850.0: 0.00018640320832764734, 277.0: 2.0136988928826136e-05}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069353, 850.0: 0.00040380460573048857, 277.0: 4.362268733438852e-05}</t>
@@ -1861,13 +1861,13 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971744383835212, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749617}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9962354551676935, 182.0: 0.003764544832306641}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9698751361664365, 171.0: 0.011496757453733453, 593.0: 0.0033706896785585493, 778.0: 0.01522994662320334, 420.0: 2.7465559220133375e-05, 212.0: 4.518848177053863e-09}</t>
+    <t>{182.0: 0.9971634886605053, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794809}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9964005235602091, 182.0: 0.0035994764397905762}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9698324076519499, 171.0: 0.01150971730022789, 593.0: 0.003379243143430801, 778.0: 0.015251161826322662, 420.0: 2.7465559220133375e-05, 212.0: 4.518848177053863e-09}</t>
   </si>
   <si>
     <t>{858.0: 0.9872985781990523, 543.0: 0.012701421800947868}</t>
@@ -1882,13 +1882,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.994614809274495, 857.0: 0.005385190725504864}</t>
+    <t>{204.0: 0.9946682464454973, 857.0: 0.005331753554502374}</t>
   </si>
   <si>
     <t>{206.0: 0.8017747931406645, 578.0: 0.19822520685933565}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146224, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663015, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.001914298336032985}</t>
@@ -1909,16 +1909,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.9893097838717172, 409.0: 0.010690216128282592}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.900153609831029, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310284, 999.0: 0.09984639016897078}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345016, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.9891098484848484, 409.0: 0.01089015151515151}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310298, 999.0: 0.0998463901689708}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648747, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1930,10 +1930,10 @@
     <t>{226.0: 0.9845670939053099, 265.0: 0.015432906094690033}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628104, 297.0: 0.00018045618356780222, 844.0: 0.002257761053621825}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809519, 738.0: 0.00761904761904762}</t>
+    <t>{227.0: 0.9975636241524382, 297.0: 0.00017861479393955929, 844.0: 0.002257761053621825}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809519, 738.0: 0.007619047619047625}</t>
   </si>
   <si>
     <t>{230.0: 0.9967205946655007, 581.0: 0.003279405334499344}</t>
@@ -1948,13 +1948,13 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -1963,10 +1963,10 @@
     <t>{244.0: 0.9789196310935442, 565.0: 0.021080368906455864}</t>
   </si>
   <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947861}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9994282198213041, 46.0: 0.0005548033540903257, 90.0: 8.04310846460373e-06, 681.0: 8.115747128531286e-06, 741.0: 8.179690123891223e-07}</t>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9994282198213041, 46.0: 0.0005548033540903257, 90.0: 8.043108464603724e-06, 681.0: 8.115747128531286e-06, 741.0: 8.179690123891223e-07}</t>
   </si>
   <si>
     <t>{249.0: 1.0}</t>
@@ -1984,16 +1984,16 @@
     <t>{262.0: 0.9992897727272732, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549508, 595.0: 0.0013976754450492866}</t>
+    <t>{263.0: 0.9986024273630009, 595.0: 0.001397572636998897}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
   </si>
   <si>
-    <t>{267.0: 0.9888827101863005, 887.0: 0.011117289813699244}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862112, 942.0: 0.0002797618337629159}</t>
+    <t>{267.0: 0.9888822155662896, 887.0: 0.011117784433710615}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{271.0: 0.9988083631242551, 237.0: 0.001191636875744773}</t>
@@ -2002,7 +2002,7 @@
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328585, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937944, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -2014,22 +2014,22 @@
     <t>{281.0: 0.961915753029429, 599.0: 0.009040200038468935, 621.0: 0.029044046932102323}</t>
   </si>
   <si>
-    <t>{282.0: 0.9865400946008593, 182.0: 0.0031506270486254973, 277.0: 0.010309278350515464}</t>
+    <t>{282.0: 0.9864431721116683, 182.0: 0.0032475495378161924, 277.0: 0.010309278350515464}</t>
   </si>
   <si>
     <t>{285.0: 0.8919655461591188, 311.0: 0.10803445384088109}</t>
   </si>
   <si>
-    <t>{286.0: 0.7822697063992795, 909.0: 0.16270672690254548, 306.0: 0.012156833952983986, 142.0: 0.0004927091240867961, 788.0: 0.04237388612014246, 44.0: 1.3750096152363283e-07}</t>
+    <t>{286.0: 0.7826425451808656, 909.0: 0.16233388812095964, 306.0: 0.012156833952984001, 142.0: 0.00049270840246167, 788.0: 0.04237388612014246, 44.0: 1.3822258664971235e-07}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.960343291082585, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9856576766219584, 297.0: 0.013916655611733712, 749.0: 0.0004256677663083963}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968175}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9856591443139646, 297.0: 0.013915187919726558, 749.0: 0.0004256677663083963}</t>
   </si>
   <si>
     <t>{299.0: 0.9843037974683544, 443.0: 0.01569620253164557}</t>
@@ -2038,25 +2038,25 @@
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603583, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9598571373775301, 142.0: 0.04011330634102033, 44.0: 2.9556281449005187e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662859, 426.0: 0.0731432659158121, 204.0: 0.0010707941656292628, 857.0: 5.797652272921263e-06}</t>
+    <t>{306.0: 0.9598571373775312, 142.0: 0.04011315122533902, 44.0: 2.9711397130311997e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879628, 426.0: 0.07086273685860801, 204.0: 0.001018084182646364, 857.0: 5.45727078249987e-06}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392753, 5.0: 0.05300183025736112, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.007315957933241885}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452713, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667586, 217.0: 0.007315957933241885}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.4878394090991042, 98.0: 0.4209212448061634, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
@@ -2077,10 +2077,10 @@
     <t>{404.0: 0.7774172615184943, 907.0: 0.2225827384815055}</t>
   </si>
   <si>
-    <t>{405.0: 0.36474474874689916, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2092,13 +2092,13 @@
     <t>{414.0: 0.9969001859888406, 759.0: 0.0030998140111593293}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471701, 277.0: 0.1268867924528302}</t>
-  </si>
-  <si>
-    <t>{418.0: 0.970540792936582, 922.0: 0.027443434380035867, 887.0: 0.002009625535652811, 267.0: 6.147147729269581e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.014789533560864623}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12706660368445913}</t>
+  </si>
+  <si>
+    <t>{418.0: 0.970540792936582, 922.0: 0.027443434380035867, 887.0: 0.002009714946023678, 267.0: 6.0577373584026945e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 0.9852607709750565, 17.0: 0.014739229024943313}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
@@ -2110,7 +2110,7 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04788877445932027}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2122,7 +2122,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243409, 783.0: 0.00018839487565938215}</t>
+    <t>{431.0: 0.9996376811594208, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2134,7 +2134,7 @@
     <t>{434.0: 0.691054261039596, 585.0: 0.3089457389604041}</t>
   </si>
   <si>
-    <t>{435.0: 0.9862700228832952, 781.0: 0.01372517362616835, 81.0: 4.796469120002929e-06, 172.0: 7.0214164535638515e-09}</t>
+    <t>{435.0: 0.9862700228832952, 781.0: 0.01372517362616835, 81.0: 4.796463382614096e-06, 172.0: 7.027153842396636e-09}</t>
   </si>
   <si>
     <t>{439.0: 0.973535457348407, 83.0: 0.026464542651593013}</t>
@@ -2158,25 +2158,25 @@
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343365, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380014, 944.0: 0.053501180173092064}</t>
+    <t>{479.0: 0.9235911012950446, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380014, 944.0: 0.053501180173092064}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555477, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
+    <t>{483.0: 0.9609996213555468, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066564, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.02208588957055216}</t>
   </si>
   <si>
     <t>{491.0: 0.6155305025813929, 492.0: 0.384469497418607}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720846592169228, 97.0: 0.011519836235458271, 696.0: 0.0004892714720398, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{492.0: 0.9720846452514066, 97.0: 0.011519836235458271, 696.0: 0.0004892854375563532, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2194,7 +2194,7 @@
     <t>{500.0: 0.9993798449612404, 277.0: 0.0006201550387596901}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755825, 534.0: 0.0009418412997409933, 695.0: 0.0011700158119279725, 857.0: 7.285812748269429e-06}</t>
+    <t>{502.0: 0.9978808570755825, 534.0: 0.0009418412997409933, 695.0: 0.0011699865195521572, 857.0: 7.315105124084836e-06}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2272,13 +2272,13 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881960371890549, 752.0: 0.011803962810944783}</t>
+    <t>{580.0: 0.9884757370533187, 752.0: 0.01152426294668118}</t>
   </si>
   <si>
     <t>{581.0: 0.998159015073064, 181.0: 0.0018409849269359108}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.38534158079506087, 758.0: 0.0038126361655773425}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.38534158079506087, 758.0: 0.0038126361655773425}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
@@ -2293,13 +2293,13 @@
     <t>{589.0: 0.9635931981692132, 145.0: 0.001457046166586512, 743.0: 0.022665162591345742, 10.0: 0.012284593072854464}</t>
   </si>
   <si>
-    <t>{593.0: 0.9912075672819319, 686.0: 0.005427172557571231, 171.0: 0.0033652601604970216}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357595, 686.0: 0.005408680253004251, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795209e-05, 492.0: 3.031470093290503e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5258052073198007e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984784, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9912172314130084, 686.0: 0.005417508426494019, 171.0: 0.0033652601604970216}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9878398022377088, 686.0: 0.005399049051054196, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795209e-05, 492.0: 3.031470049738695e-05, 97.0: 6.201917147818674e-08, 696.0: 1.525848759129169e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984777, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294206, 599.0: 0.017932683170579104}</t>
@@ -2314,7 +2314,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225911, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.9960505529225911, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
@@ -2347,7 +2347,7 @@
     <t>{618.0: 0.9843454790823212, 246.0: 0.0019026021155964606, 789.0: 0.01375191880208235}</t>
   </si>
   <si>
-    <t>{619.0: 0.9655096441914439, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{619.0: 0.9654101869025536, 887.0: 0.013046083606791265, 861.0: 0.02152800086044684, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{621.0: 1.0}</t>
@@ -2389,7 +2389,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852502, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.042517006802721094}</t>
@@ -2404,10 +2404,10 @@
     <t>{694.0: 0.939844302901628, 86.0: 0.06015569709837227}</t>
   </si>
   <si>
-    <t>{695.0: 0.99381143065162, 857.0: 0.006188569348380052}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661317, 492.0: 0.017884122003138155, 14.0: 0.0004997942885116642, 178.0: 3.254928612905661e-07, 623.0: 8.137321532264157e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{695.0: 0.9937865497076026, 857.0: 0.0062134502923976605}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063285, 492.0: 0.01785610337176307, 14.0: 0.0004997969151486987, 178.0: 3.2528273032782204e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2425,10 +2425,10 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.26422101444321144, 73.0: 0.13523849320665327, 888.0: 0.6005404923501354}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851532, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{734.0: 0.2644190502430502, 73.0: 0.13520755011292845, 888.0: 0.6003733996440214}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
@@ -2437,13 +2437,13 @@
     <t>{739.0: 0.9994516792323509, 831.0: 0.0005483207676490747}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.000287981118831908}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.0002879811188319081}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773417}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773417}</t>
   </si>
   <si>
     <t>{743.0: 0.9994769518487786, 145.0: 0.00022416349338054986, 544.0: 0.000298505923321822, 975.0: 3.787345189111719e-07}</t>
@@ -2452,7 +2452,7 @@
     <t>{749.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.8066928545138231, 580.0: 0.19330714548617692}</t>
+    <t>{752.0: 0.8066160041894903, 580.0: 0.1933839958105095}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2461,7 +2461,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.9991689750692524, 583.0: 0.0005095708829251114, 742.0: 0.0003214540478228109}</t>
+    <t>{758.0: 0.9991689750692524, 583.0: 0.0005095708829251116, 742.0: 0.0003214540478228109}</t>
   </si>
   <si>
     <t>{759.0: 0.9984255510571302, 226.0: 0.0015744489428699954}</t>
@@ -2473,7 +2473,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100496, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{772.0: 0.9989726027397261, 493.0: 0.0010273972602739725}</t>
@@ -2482,25 +2482,25 @@
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125862, 171.0: 0.019238165421154786, 184.0: 0.002458085790359677, 593.0: 0.001521981335728533, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523234, 81.0: 0.0003490904449492977, 172.0: 5.110236994390215e-07, 435.0: 0.0007224687790277634}</t>
+    <t>{778.0: 0.9753594977972541, 171.0: 0.018743715381244096, 184.0: 0.0024402799418704003, 593.0: 0.001482998639460586, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523234, 81.0: 0.00034909002737804464, 172.0: 5.114412706920357e-07, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8290401866880288, 500.0: 0.17095484553817905, 277.0: 4.967773791507788e-06}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.31473060493316796}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8293916229455558, 500.0: 0.1706034092806525, 277.0: 4.967773791507788e-06}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9490291558354386, 246.0: 0.000915315051440706, 681.0: 0.04966736852697118, 171.0: 0.00021649230569130122, 90.0: 3.819899531031601e-05, 420.0: 9.257492618603484e-08, 212.0: 0.0001333767102217631}</t>
+    <t>{789.0: 0.9490291558354383, 246.0: 0.000915315051440706, 681.0: 0.04966736852697118, 171.0: 0.00021649230569130122, 90.0: 3.819899531031601e-05, 420.0: 9.257492618603484e-08, 212.0: 0.0001333767102217631}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -2512,19 +2512,19 @@
     <t>{834.0: 0.9681697612732095, 210.0: 0.03162121602224349, 82.0: 4.572371661964563e-05, 788.0: 0.00016329898792730586}</t>
   </si>
   <si>
-    <t>{835.0: 0.9830399431369468, 836.0: 0.011920702428051403, 756.0: 0.005039354435002383}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7794419019431164, 536.0: 0.11351593219830385, 486.0: 0.07358523540319548, 980.0: 0.01877165457752797, 2.0: 0.014523992501163024, 840.0: 0.00015083648348333185, 303.0: 1.0422831267752875e-05, 144.0: 2.4061942134096673e-08}</t>
+    <t>{835.0: 0.9827025729172754, 836.0: 0.012258072647722114, 756.0: 0.005039354435002383}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952598, 835.0: 0.007748404740200545}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7794419019431164, 536.0: 0.11351593219830385, 486.0: 0.07358523540319548, 980.0: 0.01877165457752797, 2.0: 0.014523992501163024, 840.0: 0.00015083648348333185, 303.0: 1.042272923176079e-05, 144.0: 2.4163978126184215e-08}</t>
   </si>
   <si>
     <t>{838.0: 0.9948208890807074, 423.0: 0.005179110919292188}</t>
   </si>
   <si>
-    <t>{840.0: 0.9352264726590002, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
+    <t>{840.0: 0.9352264726590002, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
   </si>
   <si>
     <t>{842.0: 0.9956627812415287, 606.0: 0.00433721875847113}</t>
@@ -2533,31 +2533,31 @@
     <t>{844.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235833}</t>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076419, 277.0: 0.09749670619235833}</t>
   </si>
   <si>
     <t>{851.0: 0.7625494688606541, 7.0: 0.23745053113934594}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290924, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796245, 91.0: 0.0010065767865829517, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08456065457257103, 307.0: 8.839720974269256e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455604, 976.0: 0.002654440154440155}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9928112252580561, 695.0: 0.007188774741944105}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990519, 543.0: 0.012701421800947861}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9907006998347077, 253.0: 0.0007238184843798091, 490.0: 0.008453820911291304, 619.0: 0.00012004347186266865, 887.0: 1.617297758973283e-06}</t>
+    <t>{852.0: 0.989835809225958, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.848792607179624, 91.0: 0.0010065767865829517, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08462716049435266, 307.0: 8.839720974269256e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178297, 976.0: 0.0026647286821705417}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9927417586919555, 695.0: 0.007258241308044793}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990519, 543.0: 0.012701421800947866}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9906917700310797, 253.0: 0.0007238119601521299, 490.0: 0.008462764860626144, 619.0: 0.00012003110616717065, 887.0: 1.6220419752320364e-06}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360666, 10.0: 0.027726001863932894}</t>
@@ -2569,7 +2569,7 @@
     <t>{886.0: 0.9906196327123794, 531.0: 0.009182424896677302, 262.0: 0.00018743217549493918, 442.0: 1.051021544831435e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9963911632258716, 267.0: 0.0030477908020246068, 619.0: 0.0005488344953339268, 861.0: 1.2202561423636924e-05, 253.0: 8.915345993681083e-09}</t>
+    <t>{887.0: 0.996435515086599, 267.0: 0.0030034606316862275, 619.0: 0.0005487779598127294, 861.0: 1.223738111667056e-05, 253.0: 8.940785702608694e-09}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2596,16 +2596,16 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 1.3999800095412306e-05, 502.0: 2.0905624831377268e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410216, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.4117263642249503e-05, 502.0: 2.1081030824663273e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.0007239000083155152, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{914.0: 0.9042779872152104, 110.0: 0.09572201278478935}</t>
   </si>
   <si>
-    <t>{915.0: 0.5001414069283653, 171.0: 0.2780495897244083, 420.0: 0.22180900334722656}</t>
+    <t>{915.0: 0.5079882478723833, 171.0: 0.2735800010264546, 420.0: 0.21843175110116222}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2614,19 +2614,19 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 695.0: 0.005083434427885524, 857.0: 3.165508618097213e-05}</t>
+    <t>{919.0: 0.9890254656143603, 297.0: 0.005859444871573596, 695.0: 0.005083307159629681, 857.0: 3.178235443681668e-05}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304315, 686.0: 0.013476598069568387}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854248, 887.0: 0.06821723107911948, 267.0: 0.00020866643545552275}</t>
-  </si>
-  <si>
-    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495125086512, 595.0: 5.796567762552023e-06}</t>
-  </si>
-  <si>
-    <t>{928.0: 0.9481432817964375, 922.0: 0.019397224134029303, 3.0: 0.025749061260736363, 418.0: 0.006621187181332208, 887.0: 8.897347075718955e-05, 267.0: 2.721567073204135e-07}</t>
+    <t>{922.0: 0.9315741024854248, 887.0: 0.06822026613606025, 267.0: 0.00020563137851477048}</t>
+  </si>
+  <si>
+    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495551461485, 595.0: 5.796141387578683e-06}</t>
+  </si>
+  <si>
+    <t>{928.0: 0.9479522860123605, 922.0: 0.019408385204539146, 3.0: 0.025892111601073794, 418.0: 0.006657971554561826, 887.0: 8.897742928124124e-05, 267.0: 2.681981832687523e-07}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -2635,7 +2635,7 @@
     <t>{932.0: 0.9982325910215624, 108.0: 0.0017674089784376105}</t>
   </si>
   <si>
-    <t>{933.0: 0.8432666572983655, 702.0: 0.005318616570787546, 249.0: 0.1169789019849372, 299.0: 0.03443582414590989}</t>
+    <t>{933.0: 0.8437739144187199, 702.0: 0.005296760291391842, 249.0: 0.11649350114397816, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9935019726154561, 5.0: 0.006498027384543977}</t>
@@ -2644,25 +2644,25 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965652, 171.0: 0.0032933285286552167, 593.0: 0.0036190543506065156, 85.0: 0.0050890585241730275}</t>
-  </si>
-  <si>
-    <t>{940.0: 0.9864997747918501, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{937.0: 0.9880009426222851, 171.0: 0.0032933364754076174, 593.0: 0.0036166623781342046, 85.0: 0.0050890585241730275}</t>
+  </si>
+  <si>
+    <t>{940.0: 0.9864997747918501, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.10812454662003079, 848.0: 0.16042594361443507, 707.0: 0.000913674097471865}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.10993183872972911, 848.0: 0.1844589262685211, 707.0: 0.001050549176659826}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382853, 615.0: 0.045862412761714856}</t>
+    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211056, 615.0: 0.0462311557788945}</t>
   </si>
   <si>
     <t>{973.0: 0.977720207253886, 565.0: 0.02227979274611399}</t>
@@ -2674,7 +2674,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 0.9504155918601317, 489.0: 0.04917254413384411, 935.0: 0.0004118640060240265}</t>
+    <t>{978.0: 0.9504155918601317, 489.0: 0.04917437168691645, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.013490241102181402}</t>
